--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acornanalyticsnet.sharepoint.com/sites/acornanalytics.net/Shared Documents/Takealot Scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{798A0BEF-040F-4666-879D-3EE0A816A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{798A0BEF-040F-4666-879D-3EE0A816A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46EBAC1A-CB65-4BF6-A681-ED9CB28CE001}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="0" windowWidth="38620" windowHeight="21100" xr2:uid="{481BA73D-D359-4527-9034-4BCEAF69645E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{481BA73D-D359-4527-9034-4BCEAF69645E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>VX3218-PC-MHD 32" Full HD 165Hz Curved HD Gaming Monitor</t>
   </si>
@@ -54,6 +54,42 @@
   </si>
   <si>
     <t>https://www.takealot.com/vx3218-pc-mhd-32-full-hd-165hz-curved-hd-gaming-monitor/PLID72110161?gad_campaignid=18844766148&amp;gad_source=1&amp;gbraid=0AAAAADuiBEzWxB3hzQSVbo6F8RE-1useE&amp;gclid=CjwKCAjwi-DBBhA5EiwAXOHsGXLEgQFQ6xRDHCTcLsnbp0pWCj-rC7YUFiMqv0PfcwaRIxm96x2XWxoCH0AQAvD_BwE&amp;gclsrc=aw.ds&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>LG 32GN600F</t>
+  </si>
+  <si>
+    <t>UltraGear 32" QHD 165Hz Gaming Monitor</t>
+  </si>
+  <si>
+    <t>https://www.takealot.com/lg-32gn600f-ultragear-32-qhd-165hz-gaming-monitor/PLID90524476</t>
+  </si>
+  <si>
+    <t>LG UltraFine 27" 4K (UHD) IPS Monitor</t>
+  </si>
+  <si>
+    <t>27UL500</t>
+  </si>
+  <si>
+    <t>https://www.takealot.com/lg-ultrafine-27-4k-uhd-ips-monitor-27ul500/PLID69267165</t>
+  </si>
+  <si>
+    <t>Samsung 27" Odyssey QHD 1ms Response, 165Hz Gaming Monitor</t>
+  </si>
+  <si>
+    <t>LS27CG552EAXXA</t>
+  </si>
+  <si>
+    <t>https://www.takealot.com/samsung-27-odyssey-qhd-1ms-response-165hz-gaming-monitor/PLID94972026</t>
+  </si>
+  <si>
+    <t>Dell 27" S2722DC QHD IPS LED USB-C IPS Monitor</t>
+  </si>
+  <si>
+    <t>S2722DC</t>
+  </si>
+  <si>
+    <t>https://www.takealot.com/dell-27-s2722dc-qhd-ips-led-usb-c-ips-monitor/PLID91476998</t>
   </si>
 </sst>
 </file>
@@ -436,13 +472,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715DED15-D18C-4930-BCCE-E8E6B00234F0}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -466,15 +507,83 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.takealot.com/vx3218-pc-mhd-32-full-hd-165hz-curved-hd-gaming-monitor/PLID72110161?gad_campaignid=18844766148&amp;gad_source=1&amp;gbraid=0AAAAADuiBEzWxB3hzQSVbo6F8RE-1useE&amp;gclid=CjwKCAjwi-DBBhA5EiwAXOHsGXLEgQFQ6xRDHCTcLsnbp0pWCj-rC7YUFiMqv0PfcwaRIxm96x2XWxoCH0AQAvD_BwE&amp;gclsrc=aw.ds&amp;gclsrc=aw.ds" xr:uid="{3AF2C5D6-BFFA-40EC-972F-34CED1FB73CC}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{724FD6CC-60C3-4D23-B0D1-A161ED81625F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{EDB6203F-7885-4114-AC77-9D655180F360}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{B47066A4-7F34-4818-89FB-45D2D99D86F1}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{60C9E945-F66E-4B4D-AA50-8CEC98E70125}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f5e6237-9239-42df-8cf2-9a545ed3ba6b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf1ead7c-57a1-487b-9aa0-c3769a53ec97" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9AF7230A511314D804DA0CBACD273B3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ee2d123f03b35514263dbe1270a0a28">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f5e6237-9239-42df-8cf2-9a545ed3ba6b" xmlns:ns3="bf1ead7c-57a1-487b-9aa0-c3769a53ec97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c232924f0e26d514d86ee166c5d7c3aa" ns2:_="" ns3:_="">
     <xsd:import namespace="6f5e6237-9239-42df-8cf2-9a545ed3ba6b"/>
@@ -675,34 +784,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f5e6237-9239-42df-8cf2-9a545ed3ba6b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf1ead7c-57a1-487b-9aa0-c3769a53ec97" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{518A8263-7381-4B9B-89F5-062C2B2AB1BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9DBF7C2-77D1-4A65-B724-049100FE0071}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6f5e6237-9239-42df-8cf2-9a545ed3ba6b"/>
+    <ds:schemaRef ds:uri="bf1ead7c-57a1-487b-9aa0-c3769a53ec97"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A0CACE8-610E-4C9E-B1C8-DC2F25E133AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A0CACE8-610E-4C9E-B1C8-DC2F25E133AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9DBF7C2-77D1-4A65-B724-049100FE0071}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{518A8263-7381-4B9B-89F5-062C2B2AB1BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f5e6237-9239-42df-8cf2-9a545ed3ba6b"/>
+    <ds:schemaRef ds:uri="bf1ead7c-57a1-487b-9aa0-c3769a53ec97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>